--- a/CenterText.xlsx
+++ b/CenterText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\StevePro7\PlatformerSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A2A28-558B-4C46-A1AD-9281E5768946}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A074FDD2-C40D-421D-8B5B-3AAB8D1F13BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="4020" windowWidth="16260" windowHeight="10785" xr2:uid="{F0269968-EACA-45F7-91D1-CEB5A40DA9B9}"/>
+    <workbookView xWindow="7455" yWindow="3930" windowWidth="16260" windowHeight="10785" xr2:uid="{F0269968-EACA-45F7-91D1-CEB5A40DA9B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C3" si="1">IF(ISEVEN(B2),B2, B2+1)</f>
+        <f t="shared" ref="C2" si="1">IF(ISEVEN(B2),B2, B2+1)</f>
         <v>12</v>
       </c>
       <c r="D2">

--- a/CenterText.xlsx
+++ b/CenterText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\StevePro7\PlatformerSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A074FDD2-C40D-421D-8B5B-3AAB8D1F13BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8BBA1-79C5-481A-B486-1AE12A552EC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="3930" windowWidth="16260" windowHeight="10785" xr2:uid="{F0269968-EACA-45F7-91D1-CEB5A40DA9B9}"/>
+    <workbookView xWindow="33315" yWindow="3690" windowWidth="16260" windowHeight="10785" xr2:uid="{F0269968-EACA-45F7-91D1-CEB5A40DA9B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>SELECT DIFFICULTY</t>
   </si>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75201AC2-9B39-42C7-B9F4-043F30CD7411}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B5" si="0">LEN(A2)</f>
+        <f t="shared" ref="B2:B6" si="0">LEN(A2)</f>
         <v>12</v>
       </c>
       <c r="C2">
@@ -658,6 +658,80 @@
       <c r="I5">
         <f>H5+F5</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>IF(ISEVEN(B6),B6, B6-1)</f>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>C6/2</f>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>$E$2</f>
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f>E6-D6</f>
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <f>F6/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="H6">
+        <f>$H$2</f>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>H6+F6</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7" si="2">LEN(A7)</f>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f>IF(ISEVEN(B7),B7, B7-1)</f>
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <f>C7/2</f>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f>$E$2</f>
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <f>E7-D7</f>
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>F7/2</f>
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f>$H$2</f>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>H7+F7</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +744,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CenterText.xlsx
+++ b/CenterText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\StevePro7\PlatformerSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8BBA1-79C5-481A-B486-1AE12A552EC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CA311-28BE-492C-B036-4AC71BFABD0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33315" yWindow="3690" windowWidth="16260" windowHeight="10785" xr2:uid="{F0269968-EACA-45F7-91D1-CEB5A40DA9B9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>SELECT DIFFICULTY</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>play screens beyond half block to right less</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75201AC2-9B39-42C7-B9F4-043F30CD7411}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,25 +521,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <f>C2/2</f>
+        <f t="shared" ref="D2:D8" si="2">C2/2</f>
         <v>6</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F7" si="3">E2-D2</f>
         <v>9</v>
       </c>
       <c r="G2">
-        <f>F2/2</f>
+        <f t="shared" ref="G2:G8" si="4">F2/2</f>
         <v>4.5</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <f>H2+F2</f>
+        <f t="shared" ref="I2:I7" si="5">H2+F2</f>
         <v>11</v>
       </c>
       <c r="K2" t="s">
@@ -556,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <f>C3/2</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E3">
@@ -564,11 +567,11 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f>E3-D3</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G3">
-        <f>F3/2</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H3">
@@ -576,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>H3+F3</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K3" t="s">
@@ -596,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <f>C4/2</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E4">
@@ -604,11 +607,11 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <f>E4-D4</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G4">
-        <f>F4/2</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="H4">
@@ -616,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f>H4+F4</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="K4" t="s">
@@ -636,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <f>C5/2</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E5">
@@ -644,11 +647,11 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <f>E5-D5</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G5">
-        <f>F5/2</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H5">
@@ -656,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <f>H5+F5</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -673,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f>C6/2</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E6">
@@ -681,11 +684,11 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <f>E6-D6</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G6">
-        <f>F6/2</f>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="H6">
@@ -693,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <f>H6+F6</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -702,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7" si="2">LEN(A7)</f>
+        <f t="shared" ref="B7:B8" si="6">LEN(A7)</f>
         <v>14</v>
       </c>
       <c r="C7">
@@ -710,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <f>C7/2</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E7">
@@ -718,11 +721,11 @@
         <v>15</v>
       </c>
       <c r="F7">
-        <f>E7-D7</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G7">
-        <f>F7/2</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H7">
@@ -730,8 +733,45 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <f>H7+F7</f>
+        <f t="shared" si="5"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8" si="7">LEN(A8)</f>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f>IF(ISEVEN(B8),B8, B8-1)</f>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>$E$2</f>
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="8">E8-D8</f>
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="H8">
+        <f>$H$2</f>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="9">H8+F8</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
